--- a/data.xlsx
+++ b/data.xlsx
@@ -1846,11 +1846,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="174" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="191" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2398,15 +2398,15 @@
     <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2475,7 +2475,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="48" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="3" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
@@ -2939,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -2958,10 +2958,9 @@
     <col min="9" max="9" width="22.625" customWidth="1"/>
     <col min="10" max="10" width="14.125" customWidth="1"/>
     <col min="11" max="11" width="13.625" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="8" t="s">
         <v>216</v>
       </c>
@@ -2995,9 +2994,8 @@
       <c r="K1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>35416</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3067,7 +3065,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:11">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3102,7 +3100,7 @@
         <v>36647</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -3137,7 +3135,7 @@
         <v>38671</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -3172,7 +3170,7 @@
         <v>33025</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:11">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>41686</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:11">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -3242,7 +3240,7 @@
         <v>39417</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:11">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -3277,7 +3275,7 @@
         <v>37849</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:11">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -3312,7 +3310,7 @@
         <v>39918</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:11">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -3347,7 +3345,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:11">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v>38781</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -3417,7 +3415,7 @@
         <v>40858</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -3452,7 +3450,7 @@
         <v>41544</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -3487,7 +3485,7 @@
         <v>41409</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:11">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -3972,7 +3970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="7575" tabRatio="748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11595" windowHeight="7575" tabRatio="748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLOYEE" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="606">
   <si>
     <t>台北商業大學</t>
   </si>
@@ -929,9 +929,6 @@
     <t>PsycInfo</t>
   </si>
   <si>
-    <t>Publisher</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -1839,6 +1836,12 @@
   </si>
   <si>
     <t>yhhuang@wisdon.com.tw</t>
+  </si>
+  <si>
+    <t>Publisher_id</t>
+  </si>
+  <si>
+    <t>Product Manager_id</t>
   </si>
 </sst>
 </file>
@@ -2941,7 +2944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -2986,10 +2989,10 @@
         <v>217</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>218</v>
@@ -3015,16 +3018,16 @@
         <v>292</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H2" s="10">
         <v>25385</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K2" s="10">
         <v>35416</v>
@@ -3050,16 +3053,16 @@
         <v>293</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H3" s="10">
         <v>32809</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K3" s="10">
         <v>41518</v>
@@ -3085,16 +3088,16 @@
         <v>293</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H4" s="10">
         <v>25525</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K4" s="10">
         <v>36647</v>
@@ -3120,16 +3123,16 @@
         <v>294</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H5" s="10">
         <v>24762</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K5" s="10">
         <v>38671</v>
@@ -3155,16 +3158,16 @@
         <v>293</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H6" s="10">
         <v>17965</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K6" s="10">
         <v>33025</v>
@@ -3190,16 +3193,16 @@
         <v>295</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H7" s="10">
         <v>32415</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K7" s="10">
         <v>41686</v>
@@ -3225,16 +3228,16 @@
         <v>293</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H8" s="10">
         <v>33900</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K8" s="10">
         <v>39417</v>
@@ -3260,16 +3263,16 @@
         <v>292</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H9" s="10">
         <v>20553</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K9" s="10">
         <v>37849</v>
@@ -3295,16 +3298,16 @@
         <v>293</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H10" s="10">
         <v>33163</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K10" s="10">
         <v>39918</v>
@@ -3330,16 +3333,16 @@
         <v>293</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H11" s="10">
         <v>28690</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K11" s="10">
         <v>41579</v>
@@ -3365,16 +3368,16 @@
         <v>296</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H12" s="10">
         <v>24721</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K12" s="10">
         <v>38781</v>
@@ -3400,16 +3403,16 @@
         <v>293</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H13" s="10">
         <v>25098</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K13" s="10">
         <v>40858</v>
@@ -3435,16 +3438,16 @@
         <v>293</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H14" s="10">
         <v>31121</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K14" s="10">
         <v>41544</v>
@@ -3470,16 +3473,16 @@
         <v>292</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H15" s="10">
         <v>30675</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K15" s="10">
         <v>41409</v>
@@ -3505,16 +3508,16 @@
         <v>293</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H16" s="10">
         <v>30808</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K16" s="10">
         <v>38122</v>
@@ -3540,16 +3543,16 @@
         <v>293</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H17" s="10">
         <v>30282</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K17" s="10">
         <v>38976</v>
@@ -3575,16 +3578,16 @@
         <v>293</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H18" s="10">
         <v>30511</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K18" s="10">
         <v>39185</v>
@@ -3610,16 +3613,16 @@
         <v>293</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H19" s="10">
         <v>29507</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K19" s="10">
         <v>40171</v>
@@ -3645,16 +3648,16 @@
         <v>293</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H20" s="10">
         <v>27452</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K20" s="10">
         <v>37214</v>
@@ -3680,16 +3683,16 @@
         <v>293</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H21" s="10">
         <v>27335</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K21" s="10">
         <v>41246</v>
@@ -3715,16 +3718,16 @@
         <v>293</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H22" s="10">
         <v>17932</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K22" s="10">
         <v>32808</v>
@@ -3750,16 +3753,16 @@
         <v>293</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H23" s="10">
         <v>16513</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K23" s="10">
         <v>32441</v>
@@ -3785,16 +3788,16 @@
         <v>293</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H24" s="10">
         <v>20995</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K24" s="10">
         <v>37059</v>
@@ -3820,16 +3823,16 @@
         <v>293</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H25" s="10">
         <v>25477</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K25" s="10">
         <v>41464</v>
@@ -3855,16 +3858,16 @@
         <v>293</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H26" s="10">
         <v>24255</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K26" s="10">
         <v>42105</v>
@@ -3890,16 +3893,16 @@
         <v>292</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H27" s="10">
         <v>23187</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K27" s="10">
         <v>40722</v>
@@ -3925,16 +3928,16 @@
         <v>293</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H28" s="10">
         <v>23569</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K28" s="10">
         <v>40747</v>
@@ -3968,455 +3971,451 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.5" style="15" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="43.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="43.375" style="15" customWidth="1"/>
     <col min="8" max="8" width="21.875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="2"/>
+    <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="12" t="s">
         <v>301</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>419</v>
+      </c>
       <c r="D1" s="8" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>444</v>
+      <c r="G1" s="12" t="s">
+        <v>604</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>304</v>
+      <c r="C2" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2" s="16">
+        <v>440</v>
+      </c>
+      <c r="E2" s="16">
         <v>10000</v>
       </c>
-      <c r="G2" s="17">
-        <f>F2*32</f>
+      <c r="F2" s="17">
+        <f>E2*32</f>
         <v>320000</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1</v>
       </c>
       <c r="H2" s="15">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>304</v>
+      <c r="C3" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F3" s="16">
+        <v>440</v>
+      </c>
+      <c r="E3" s="16">
         <v>15000</v>
       </c>
-      <c r="G3" s="17">
-        <f>F3*32</f>
+      <c r="F3" s="17">
+        <f>E3*32</f>
         <v>480000</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
       </c>
       <c r="H3" s="15">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>304</v>
+      <c r="C4" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F4" s="16">
+        <v>440</v>
+      </c>
+      <c r="E4" s="16">
         <v>14000</v>
       </c>
-      <c r="G4" s="17">
-        <f t="shared" ref="G4:G67" si="0">F4*32</f>
+      <c r="F4" s="17">
+        <f>E4*32</f>
         <v>448000</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
       </c>
       <c r="H4" s="15">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>304</v>
+      <c r="C5" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F5" s="16">
+        <v>440</v>
+      </c>
+      <c r="E5" s="16">
         <v>13000</v>
       </c>
-      <c r="G5" s="17">
-        <f t="shared" si="0"/>
+      <c r="F5" s="17">
+        <f>E5*32</f>
         <v>416000</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1</v>
       </c>
       <c r="H5" s="15">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="F6" s="16">
+        <v>504</v>
+      </c>
+      <c r="E6" s="16">
         <v>20000</v>
       </c>
-      <c r="G6" s="17">
-        <f t="shared" si="0"/>
+      <c r="F6" s="17">
+        <f>E6*32</f>
         <v>640000</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
       </c>
       <c r="H6" s="15">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>13</v>
+        <v>502</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F7" s="16">
+        <v>440</v>
+      </c>
+      <c r="E7" s="16">
         <v>3000</v>
       </c>
-      <c r="G7" s="17">
-        <f t="shared" si="0"/>
+      <c r="F7" s="17">
+        <f>E7*32</f>
         <v>96000</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2</v>
       </c>
       <c r="H7" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
+        <v>503</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F8" s="16">
+        <v>440</v>
+      </c>
+      <c r="E8" s="16">
         <v>3000</v>
       </c>
-      <c r="G8" s="17">
-        <f t="shared" si="0"/>
+      <c r="F8" s="17">
+        <f>E8*32</f>
         <v>96000</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2</v>
       </c>
       <c r="H8" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>305</v>
+      <c r="C9" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F9" s="16">
+        <v>505</v>
+      </c>
+      <c r="E9" s="16">
         <v>5000</v>
       </c>
-      <c r="G9" s="17">
-        <f t="shared" si="0"/>
+      <c r="F9" s="17">
+        <f>E9*32</f>
         <v>160000</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3</v>
       </c>
       <c r="H9" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>306</v>
+      <c r="C10" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F10" s="16">
+        <v>440</v>
+      </c>
+      <c r="E10" s="16">
         <v>8000</v>
       </c>
-      <c r="G10" s="17">
-        <f t="shared" si="0"/>
+      <c r="F10" s="17">
+        <f>E10*32</f>
         <v>256000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>4</v>
       </c>
       <c r="H10" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F11" s="16">
+        <v>440</v>
+      </c>
+      <c r="E11" s="16">
         <v>1500</v>
       </c>
-      <c r="G11" s="17">
-        <f t="shared" si="0"/>
+      <c r="F11" s="17">
+        <f>E11*32</f>
         <v>48000</v>
+      </c>
+      <c r="G11" s="14">
+        <v>5</v>
       </c>
       <c r="H11" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5">
+    <row r="12" spans="1:8" ht="31.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>167</v>
+      <c r="C12" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F12" s="16">
+        <v>440</v>
+      </c>
+      <c r="E12" s="16">
         <v>2000</v>
       </c>
-      <c r="G12" s="17">
-        <f t="shared" si="0"/>
+      <c r="F12" s="17">
+        <f>E12*32</f>
         <v>64000</v>
+      </c>
+      <c r="G12" s="14">
+        <v>6</v>
       </c>
       <c r="H12" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="F13" s="16">
+        <v>504</v>
+      </c>
+      <c r="E13" s="16">
         <v>10000</v>
       </c>
-      <c r="G13" s="17">
-        <f t="shared" si="0"/>
+      <c r="F13" s="17">
+        <f>E13*32</f>
         <v>320000</v>
+      </c>
+      <c r="G13" s="14">
+        <v>7</v>
       </c>
       <c r="H13" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>173</v>
+      <c r="C14" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F14" s="16">
+        <v>440</v>
+      </c>
+      <c r="E14" s="16">
         <v>30000</v>
       </c>
-      <c r="G14" s="17">
-        <f t="shared" si="0"/>
+      <c r="F14" s="17">
+        <f>E14*32</f>
         <v>960000</v>
+      </c>
+      <c r="G14" s="14">
+        <v>8</v>
       </c>
       <c r="H14" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>311</v>
+      <c r="C15" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F15" s="16">
+        <v>440</v>
+      </c>
+      <c r="E15" s="16">
         <v>2700</v>
       </c>
-      <c r="G15" s="17">
-        <f t="shared" si="0"/>
+      <c r="F15" s="17">
+        <f>E15*32</f>
         <v>86400</v>
+      </c>
+      <c r="G15" s="14">
+        <v>9</v>
       </c>
       <c r="H15" s="15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>311</v>
+      <c r="C16" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F16" s="16">
+        <v>440</v>
+      </c>
+      <c r="E16" s="16">
         <v>2900</v>
       </c>
-      <c r="G16" s="17">
-        <f t="shared" si="0"/>
+      <c r="F16" s="17">
+        <f>E16*32</f>
         <v>92800</v>
+      </c>
+      <c r="G16" s="14">
+        <v>9</v>
       </c>
       <c r="H16" s="15">
         <v>12</v>
@@ -4427,23 +4426,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F17" s="16">
+        <v>440</v>
+      </c>
+      <c r="E17" s="16">
         <v>2700</v>
       </c>
-      <c r="G17" s="17">
-        <f t="shared" si="0"/>
+      <c r="F17" s="17">
+        <f>E17*32</f>
         <v>86400</v>
+      </c>
+      <c r="G17" s="14">
+        <v>9</v>
       </c>
       <c r="H17" s="15">
         <v>12</v>
@@ -4454,23 +4453,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18" s="14" t="s">
         <v>311</v>
       </c>
+      <c r="C18" s="15" t="s">
+        <v>441</v>
+      </c>
       <c r="D18" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F18" s="16">
+        <v>440</v>
+      </c>
+      <c r="E18" s="16">
         <v>3000</v>
       </c>
-      <c r="G18" s="17">
-        <f t="shared" si="0"/>
+      <c r="F18" s="17">
+        <f>E18*32</f>
         <v>96000</v>
+      </c>
+      <c r="G18" s="14">
+        <v>9</v>
       </c>
       <c r="H18" s="15">
         <v>12</v>
@@ -4481,23 +4480,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F19" s="16">
+        <v>440</v>
+      </c>
+      <c r="E19" s="16">
         <v>3000</v>
       </c>
-      <c r="G19" s="17">
-        <f t="shared" si="0"/>
+      <c r="F19" s="17">
+        <f>E19*32</f>
         <v>96000</v>
+      </c>
+      <c r="G19" s="14">
+        <v>9</v>
       </c>
       <c r="H19" s="15">
         <v>12</v>
@@ -4508,23 +4507,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>311</v>
+        <v>314</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F20" s="16">
+        <v>440</v>
+      </c>
+      <c r="E20" s="16">
         <v>2800</v>
       </c>
-      <c r="G20" s="17">
-        <f t="shared" si="0"/>
+      <c r="F20" s="17">
+        <f>E20*32</f>
         <v>89600</v>
+      </c>
+      <c r="G20" s="14">
+        <v>9</v>
       </c>
       <c r="H20" s="15">
         <v>12</v>
@@ -4535,23 +4534,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>311</v>
+        <v>315</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F21" s="16">
+        <v>440</v>
+      </c>
+      <c r="E21" s="16">
         <v>11000</v>
       </c>
-      <c r="G21" s="17">
-        <f t="shared" si="0"/>
+      <c r="F21" s="17">
+        <f>E21*32</f>
         <v>352000</v>
+      </c>
+      <c r="G21" s="14">
+        <v>9</v>
       </c>
       <c r="H21" s="15">
         <v>12</v>
@@ -4564,21 +4563,21 @@
       <c r="B22" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>311</v>
+      <c r="C22" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F22" s="16">
+        <v>440</v>
+      </c>
+      <c r="E22" s="16">
         <v>6000</v>
       </c>
-      <c r="G22" s="17">
-        <f t="shared" si="0"/>
+      <c r="F22" s="17">
+        <f>E22*32</f>
         <v>192000</v>
+      </c>
+      <c r="G22" s="14">
+        <v>9</v>
       </c>
       <c r="H22" s="15">
         <v>12</v>
@@ -4591,21 +4590,21 @@
       <c r="B23" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>311</v>
+      <c r="C23" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F23" s="16">
+        <v>440</v>
+      </c>
+      <c r="E23" s="16">
         <v>4000</v>
       </c>
-      <c r="G23" s="17">
-        <f t="shared" si="0"/>
+      <c r="F23" s="17">
+        <f>E23*32</f>
         <v>128000</v>
+      </c>
+      <c r="G23" s="14">
+        <v>9</v>
       </c>
       <c r="H23" s="15">
         <v>12</v>
@@ -4618,21 +4617,21 @@
       <c r="B24" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>311</v>
+      <c r="C24" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F24" s="16">
+        <v>440</v>
+      </c>
+      <c r="E24" s="16">
         <v>5000</v>
       </c>
-      <c r="G24" s="17">
-        <f t="shared" si="0"/>
+      <c r="F24" s="17">
+        <f>E24*32</f>
         <v>160000</v>
+      </c>
+      <c r="G24" s="14">
+        <v>9</v>
       </c>
       <c r="H24" s="15">
         <v>12</v>
@@ -4643,23 +4642,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>311</v>
+        <v>316</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F25" s="16">
+        <v>505</v>
+      </c>
+      <c r="E25" s="16">
         <v>3500</v>
       </c>
-      <c r="G25" s="17">
-        <f t="shared" si="0"/>
+      <c r="F25" s="17">
+        <f>E25*32</f>
         <v>112000</v>
+      </c>
+      <c r="G25" s="14">
+        <v>9</v>
       </c>
       <c r="H25" s="15">
         <v>12</v>
@@ -4672,21 +4671,21 @@
       <c r="B26" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>311</v>
+      <c r="C26" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F26" s="16">
+        <v>505</v>
+      </c>
+      <c r="E26" s="16">
         <v>1700</v>
       </c>
-      <c r="G26" s="17">
-        <f t="shared" si="0"/>
+      <c r="F26" s="17">
+        <f>E26*32</f>
         <v>54400</v>
+      </c>
+      <c r="G26" s="14">
+        <v>9</v>
       </c>
       <c r="H26" s="15">
         <v>12</v>
@@ -4699,21 +4698,21 @@
       <c r="B27" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>55</v>
+      <c r="C27" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F27" s="16">
+        <v>440</v>
+      </c>
+      <c r="E27" s="16">
         <v>3400</v>
       </c>
-      <c r="G27" s="17">
-        <f t="shared" si="0"/>
+      <c r="F27" s="17">
+        <f>E27*32</f>
         <v>108800</v>
+      </c>
+      <c r="G27" s="14">
+        <v>10</v>
       </c>
       <c r="H27" s="15">
         <v>13</v>
@@ -4726,21 +4725,21 @@
       <c r="B28" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>55</v>
+      <c r="C28" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F28" s="16">
+        <v>440</v>
+      </c>
+      <c r="E28" s="16">
         <v>3500</v>
       </c>
-      <c r="G28" s="17">
-        <f t="shared" si="0"/>
+      <c r="F28" s="17">
+        <f>E28*32</f>
         <v>112000</v>
+      </c>
+      <c r="G28" s="14">
+        <v>10</v>
       </c>
       <c r="H28" s="15">
         <v>13</v>
@@ -4751,23 +4750,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F29" s="16">
+        <v>440</v>
+      </c>
+      <c r="E29" s="16">
         <v>6000</v>
       </c>
-      <c r="G29" s="17">
-        <f t="shared" si="0"/>
+      <c r="F29" s="17">
+        <f>E29*32</f>
         <v>192000</v>
+      </c>
+      <c r="G29" s="14">
+        <v>11</v>
       </c>
       <c r="H29" s="15">
         <v>14</v>
@@ -4780,21 +4779,21 @@
       <c r="B30" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>319</v>
+      <c r="C30" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F30" s="16">
+        <v>440</v>
+      </c>
+      <c r="E30" s="16">
         <v>7000</v>
       </c>
-      <c r="G30" s="17">
-        <f t="shared" si="0"/>
+      <c r="F30" s="17">
+        <f>E30*32</f>
         <v>224000</v>
+      </c>
+      <c r="G30" s="14">
+        <v>11</v>
       </c>
       <c r="H30" s="15">
         <v>14</v>
@@ -4807,21 +4806,21 @@
       <c r="B31" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>319</v>
+      <c r="C31" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F31" s="16">
+        <v>440</v>
+      </c>
+      <c r="E31" s="16">
         <v>6500</v>
       </c>
-      <c r="G31" s="17">
-        <f t="shared" si="0"/>
+      <c r="F31" s="17">
+        <f>E31*32</f>
         <v>208000</v>
+      </c>
+      <c r="G31" s="14">
+        <v>11</v>
       </c>
       <c r="H31" s="15">
         <v>14</v>
@@ -4834,21 +4833,21 @@
       <c r="B32" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>319</v>
+      <c r="C32" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F32" s="16">
+        <v>440</v>
+      </c>
+      <c r="E32" s="16">
         <v>4800</v>
       </c>
-      <c r="G32" s="17">
-        <f t="shared" si="0"/>
+      <c r="F32" s="17">
+        <f>E32*32</f>
         <v>153600</v>
+      </c>
+      <c r="G32" s="14">
+        <v>11</v>
       </c>
       <c r="H32" s="15">
         <v>14</v>
@@ -4861,21 +4860,21 @@
       <c r="B33" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>319</v>
+      <c r="C33" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F33" s="16">
+        <v>440</v>
+      </c>
+      <c r="E33" s="16">
         <v>5220</v>
       </c>
-      <c r="G33" s="17">
-        <f t="shared" si="0"/>
+      <c r="F33" s="17">
+        <f>E33*32</f>
         <v>167040</v>
+      </c>
+      <c r="G33" s="14">
+        <v>11</v>
       </c>
       <c r="H33" s="15">
         <v>14</v>
@@ -4888,21 +4887,21 @@
       <c r="B34" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>319</v>
+      <c r="C34" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F34" s="16">
+        <v>440</v>
+      </c>
+      <c r="E34" s="16">
         <v>4100</v>
       </c>
-      <c r="G34" s="17">
-        <f t="shared" si="0"/>
+      <c r="F34" s="17">
+        <f>E34*32</f>
         <v>131200</v>
+      </c>
+      <c r="G34" s="14">
+        <v>11</v>
       </c>
       <c r="H34" s="15">
         <v>14</v>
@@ -4913,23 +4912,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F35" s="16">
+        <v>440</v>
+      </c>
+      <c r="E35" s="16">
         <v>11500</v>
       </c>
-      <c r="G35" s="17">
-        <f t="shared" si="0"/>
+      <c r="F35" s="17">
+        <f>E35*32</f>
         <v>368000</v>
+      </c>
+      <c r="G35" s="14">
+        <v>12</v>
       </c>
       <c r="H35" s="15">
         <v>15</v>
@@ -4942,21 +4941,21 @@
       <c r="B36" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>17</v>
+      <c r="C36" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F36" s="16">
+        <v>440</v>
+      </c>
+      <c r="E36" s="16">
         <v>30000</v>
       </c>
-      <c r="G36" s="17">
-        <f t="shared" si="0"/>
+      <c r="F36" s="17">
+        <f>E36*32</f>
         <v>960000</v>
+      </c>
+      <c r="G36" s="14">
+        <v>13</v>
       </c>
       <c r="H36" s="15">
         <v>15</v>
@@ -4967,23 +4966,23 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>35</v>
+        <v>339</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F37" s="16">
+        <v>505</v>
+      </c>
+      <c r="E37" s="16">
         <v>3700</v>
       </c>
-      <c r="G37" s="17">
-        <f t="shared" si="0"/>
+      <c r="F37" s="17">
+        <f>E37*32</f>
         <v>118400</v>
+      </c>
+      <c r="G37" s="14">
+        <v>14</v>
       </c>
       <c r="H37" s="15">
         <v>15</v>
@@ -4994,23 +4993,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>35</v>
+        <v>321</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F38" s="16">
+        <v>440</v>
+      </c>
+      <c r="E38" s="16">
         <v>6000</v>
       </c>
-      <c r="G38" s="17">
-        <f t="shared" si="0"/>
+      <c r="F38" s="17">
+        <f>E38*32</f>
         <v>192000</v>
+      </c>
+      <c r="G38" s="14">
+        <v>14</v>
       </c>
       <c r="H38" s="15">
         <v>15</v>
@@ -5021,23 +5020,23 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>35</v>
+        <v>340</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F39" s="16">
+        <v>440</v>
+      </c>
+      <c r="E39" s="16">
         <v>4000</v>
       </c>
-      <c r="G39" s="17">
-        <f t="shared" si="0"/>
+      <c r="F39" s="17">
+        <f>E39*32</f>
         <v>128000</v>
+      </c>
+      <c r="G39" s="14">
+        <v>14</v>
       </c>
       <c r="H39" s="15">
         <v>15</v>
@@ -5048,23 +5047,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>35</v>
+        <v>341</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F40" s="16">
+        <v>440</v>
+      </c>
+      <c r="E40" s="16">
         <v>2000</v>
       </c>
-      <c r="G40" s="17">
-        <f t="shared" si="0"/>
+      <c r="F40" s="17">
+        <f>E40*32</f>
         <v>64000</v>
+      </c>
+      <c r="G40" s="14">
+        <v>14</v>
       </c>
       <c r="H40" s="15">
         <v>15</v>
@@ -5075,23 +5074,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>35</v>
+        <v>322</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F41" s="16">
+        <v>440</v>
+      </c>
+      <c r="E41" s="16">
         <v>4000</v>
       </c>
-      <c r="G41" s="17">
-        <f t="shared" si="0"/>
+      <c r="F41" s="17">
+        <f>E41*32</f>
         <v>128000</v>
+      </c>
+      <c r="G41" s="14">
+        <v>14</v>
       </c>
       <c r="H41" s="15">
         <v>15</v>
@@ -5102,23 +5101,23 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>35</v>
+        <v>342</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F42" s="16">
+        <v>440</v>
+      </c>
+      <c r="E42" s="16">
         <v>2000</v>
       </c>
-      <c r="G42" s="17">
-        <f t="shared" si="0"/>
+      <c r="F42" s="17">
+        <f>E42*32</f>
         <v>64000</v>
+      </c>
+      <c r="G42" s="14">
+        <v>14</v>
       </c>
       <c r="H42" s="15">
         <v>15</v>
@@ -5129,23 +5128,23 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>35</v>
+        <v>335</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F43" s="16">
+        <v>505</v>
+      </c>
+      <c r="E43" s="16">
         <v>1500</v>
       </c>
-      <c r="G43" s="17">
-        <f t="shared" si="0"/>
+      <c r="F43" s="17">
+        <f>E43*32</f>
         <v>48000</v>
+      </c>
+      <c r="G43" s="14">
+        <v>14</v>
       </c>
       <c r="H43" s="15">
         <v>15</v>
@@ -5156,23 +5155,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>35</v>
+        <v>323</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F44" s="16">
+        <v>505</v>
+      </c>
+      <c r="E44" s="16">
         <v>1300</v>
       </c>
-      <c r="G44" s="17">
-        <f t="shared" si="0"/>
+      <c r="F44" s="17">
+        <f>E44*32</f>
         <v>41600</v>
+      </c>
+      <c r="G44" s="14">
+        <v>14</v>
       </c>
       <c r="H44" s="15">
         <v>15</v>
@@ -5183,23 +5182,23 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>35</v>
+        <v>325</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F45" s="16">
+        <v>440</v>
+      </c>
+      <c r="E45" s="16">
         <v>2500</v>
       </c>
-      <c r="G45" s="17">
-        <f t="shared" si="0"/>
+      <c r="F45" s="17">
+        <f>E45*32</f>
         <v>80000</v>
+      </c>
+      <c r="G45" s="14">
+        <v>14</v>
       </c>
       <c r="H45" s="15">
         <v>15</v>
@@ -5210,23 +5209,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>35</v>
+        <v>337</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F46" s="16">
+        <v>440</v>
+      </c>
+      <c r="E46" s="16">
         <v>8000</v>
       </c>
-      <c r="G46" s="17">
-        <f t="shared" si="0"/>
+      <c r="F46" s="17">
+        <f>E46*32</f>
         <v>256000</v>
+      </c>
+      <c r="G46" s="14">
+        <v>14</v>
       </c>
       <c r="H46" s="15">
         <v>15</v>
@@ -5237,23 +5236,23 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>35</v>
+        <v>326</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F47" s="16">
+        <v>440</v>
+      </c>
+      <c r="E47" s="16">
         <v>1400</v>
       </c>
-      <c r="G47" s="17">
-        <f t="shared" si="0"/>
+      <c r="F47" s="17">
+        <f>E47*32</f>
         <v>44800</v>
+      </c>
+      <c r="G47" s="14">
+        <v>14</v>
       </c>
       <c r="H47" s="15">
         <v>15</v>
@@ -5264,23 +5263,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>35</v>
+        <v>327</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F48" s="16">
+        <v>440</v>
+      </c>
+      <c r="E48" s="16">
         <v>1500</v>
       </c>
-      <c r="G48" s="17">
-        <f t="shared" si="0"/>
+      <c r="F48" s="17">
+        <f>E48*32</f>
         <v>48000</v>
+      </c>
+      <c r="G48" s="14">
+        <v>14</v>
       </c>
       <c r="H48" s="15">
         <v>15</v>
@@ -5291,23 +5290,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>35</v>
+        <v>328</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F49" s="16">
+        <v>440</v>
+      </c>
+      <c r="E49" s="16">
         <v>1300</v>
       </c>
-      <c r="G49" s="17">
-        <f t="shared" si="0"/>
+      <c r="F49" s="17">
+        <f>E49*32</f>
         <v>41600</v>
+      </c>
+      <c r="G49" s="14">
+        <v>14</v>
       </c>
       <c r="H49" s="15">
         <v>15</v>
@@ -5318,23 +5317,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>35</v>
+        <v>329</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F50" s="16">
+        <v>440</v>
+      </c>
+      <c r="E50" s="16">
         <v>6000</v>
       </c>
-      <c r="G50" s="17">
-        <f t="shared" si="0"/>
+      <c r="F50" s="17">
+        <f>E50*32</f>
         <v>192000</v>
+      </c>
+      <c r="G50" s="14">
+        <v>14</v>
       </c>
       <c r="H50" s="15">
         <v>15</v>
@@ -5345,23 +5344,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>35</v>
+        <v>330</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F51" s="16">
+        <v>440</v>
+      </c>
+      <c r="E51" s="16">
         <v>7000</v>
       </c>
-      <c r="G51" s="17">
-        <f t="shared" si="0"/>
+      <c r="F51" s="17">
+        <f>E51*32</f>
         <v>224000</v>
+      </c>
+      <c r="G51" s="14">
+        <v>14</v>
       </c>
       <c r="H51" s="15">
         <v>15</v>
@@ -5372,23 +5371,23 @@
         <v>51</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>89</v>
+        <v>501</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="F52" s="16">
+        <v>504</v>
+      </c>
+      <c r="E52" s="16">
         <v>9000</v>
       </c>
-      <c r="G52" s="17">
-        <f t="shared" si="0"/>
+      <c r="F52" s="17">
+        <f>E52*32</f>
         <v>288000</v>
+      </c>
+      <c r="G52" s="15">
+        <v>15</v>
       </c>
       <c r="H52" s="15">
         <v>13</v>
@@ -5399,23 +5398,23 @@
         <v>52</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>35</v>
+        <v>321</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F53" s="16">
+        <v>440</v>
+      </c>
+      <c r="E53" s="16">
         <v>1500</v>
       </c>
-      <c r="G53" s="17">
-        <f t="shared" si="0"/>
+      <c r="F53" s="17">
+        <f>E53*32</f>
         <v>48000</v>
+      </c>
+      <c r="G53" s="14">
+        <v>14</v>
       </c>
       <c r="H53" s="15">
         <v>15</v>
@@ -5426,23 +5425,23 @@
         <v>53</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>35</v>
+        <v>332</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F54" s="16">
+        <v>505</v>
+      </c>
+      <c r="E54" s="16">
         <v>9000</v>
       </c>
-      <c r="G54" s="17">
-        <f t="shared" si="0"/>
+      <c r="F54" s="17">
+        <f>E54*32</f>
         <v>288000</v>
+      </c>
+      <c r="G54" s="14">
+        <v>14</v>
       </c>
       <c r="H54" s="15">
         <v>15</v>
@@ -5453,23 +5452,23 @@
         <v>54</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>35</v>
+        <v>333</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F55" s="16">
+        <v>440</v>
+      </c>
+      <c r="E55" s="16">
         <v>5410</v>
       </c>
-      <c r="G55" s="17">
-        <f t="shared" si="0"/>
+      <c r="F55" s="17">
+        <f>E55*32</f>
         <v>173120</v>
+      </c>
+      <c r="G55" s="14">
+        <v>14</v>
       </c>
       <c r="H55" s="15">
         <v>15</v>
@@ -5482,21 +5481,21 @@
       <c r="B56" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="14" t="s">
-        <v>35</v>
+      <c r="C56" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F56" s="16">
+        <v>440</v>
+      </c>
+      <c r="E56" s="16">
         <v>2350</v>
       </c>
-      <c r="G56" s="17">
-        <f t="shared" si="0"/>
+      <c r="F56" s="17">
+        <f>E56*32</f>
         <v>75200</v>
+      </c>
+      <c r="G56" s="14">
+        <v>14</v>
       </c>
       <c r="H56" s="15">
         <v>15</v>
@@ -5507,23 +5506,23 @@
         <v>56</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>35</v>
+        <v>334</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F57" s="16">
+        <v>440</v>
+      </c>
+      <c r="E57" s="16">
         <v>9000</v>
       </c>
-      <c r="G57" s="17">
-        <f t="shared" si="0"/>
+      <c r="F57" s="17">
+        <f>E57*32</f>
         <v>288000</v>
+      </c>
+      <c r="G57" s="14">
+        <v>14</v>
       </c>
       <c r="H57" s="15">
         <v>15</v>
@@ -5534,23 +5533,23 @@
         <v>57</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>35</v>
+        <v>343</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F58" s="16">
+        <v>440</v>
+      </c>
+      <c r="E58" s="16">
         <v>13000</v>
       </c>
-      <c r="G58" s="17">
-        <f t="shared" si="0"/>
+      <c r="F58" s="17">
+        <f>E58*32</f>
         <v>416000</v>
+      </c>
+      <c r="G58" s="14">
+        <v>14</v>
       </c>
       <c r="H58" s="15">
         <v>15</v>
@@ -5561,23 +5560,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>35</v>
+        <v>324</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F59" s="16">
+        <v>440</v>
+      </c>
+      <c r="E59" s="16">
         <v>15000</v>
       </c>
-      <c r="G59" s="17">
-        <f t="shared" si="0"/>
+      <c r="F59" s="17">
+        <f>E59*32</f>
         <v>480000</v>
+      </c>
+      <c r="G59" s="14">
+        <v>14</v>
       </c>
       <c r="H59" s="15">
         <v>15</v>
@@ -5590,21 +5589,21 @@
       <c r="B60" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>35</v>
+      <c r="C60" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F60" s="16">
+        <v>440</v>
+      </c>
+      <c r="E60" s="16">
         <v>1400</v>
       </c>
-      <c r="G60" s="17">
-        <f t="shared" si="0"/>
+      <c r="F60" s="17">
+        <f>E60*32</f>
         <v>44800</v>
+      </c>
+      <c r="G60" s="14">
+        <v>14</v>
       </c>
       <c r="H60" s="15">
         <v>15</v>
@@ -5617,21 +5616,21 @@
       <c r="B61" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>35</v>
+      <c r="C61" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F61" s="16">
+        <v>440</v>
+      </c>
+      <c r="E61" s="16">
         <v>1200</v>
       </c>
-      <c r="G61" s="17">
-        <f t="shared" si="0"/>
+      <c r="F61" s="17">
+        <f>E61*32</f>
         <v>38400</v>
+      </c>
+      <c r="G61" s="14">
+        <v>14</v>
       </c>
       <c r="H61" s="15">
         <v>15</v>
@@ -5642,23 +5641,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>35</v>
+        <v>344</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F62" s="16">
+        <v>505</v>
+      </c>
+      <c r="E62" s="16">
         <v>2400</v>
       </c>
-      <c r="G62" s="17">
-        <f t="shared" si="0"/>
+      <c r="F62" s="17">
+        <f>E62*32</f>
         <v>76800</v>
+      </c>
+      <c r="G62" s="14">
+        <v>14</v>
       </c>
       <c r="H62" s="15">
         <v>15</v>
@@ -5669,23 +5668,23 @@
         <v>62</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>35</v>
+        <v>336</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F63" s="16">
+        <v>440</v>
+      </c>
+      <c r="E63" s="16">
         <v>4500</v>
       </c>
-      <c r="G63" s="17">
-        <f t="shared" si="0"/>
+      <c r="F63" s="17">
+        <f>E63*32</f>
         <v>144000</v>
+      </c>
+      <c r="G63" s="14">
+        <v>14</v>
       </c>
       <c r="H63" s="15">
         <v>15</v>
@@ -5698,21 +5697,21 @@
       <c r="B64" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>35</v>
+      <c r="C64" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F64" s="16">
+        <v>440</v>
+      </c>
+      <c r="E64" s="16">
         <v>3500</v>
       </c>
-      <c r="G64" s="17">
-        <f t="shared" si="0"/>
+      <c r="F64" s="17">
+        <f>E64*32</f>
         <v>112000</v>
+      </c>
+      <c r="G64" s="14">
+        <v>14</v>
       </c>
       <c r="H64" s="15">
         <v>15</v>
@@ -5723,23 +5722,23 @@
         <v>64</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>35</v>
+        <v>345</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F65" s="16">
+        <v>440</v>
+      </c>
+      <c r="E65" s="16">
         <v>8500</v>
       </c>
-      <c r="G65" s="17">
-        <f t="shared" si="0"/>
+      <c r="F65" s="17">
+        <f>E65*32</f>
         <v>272000</v>
+      </c>
+      <c r="G65" s="14">
+        <v>14</v>
       </c>
       <c r="H65" s="15">
         <v>15</v>
@@ -5752,21 +5751,21 @@
       <c r="B66" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>35</v>
+      <c r="C66" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F66" s="16">
+        <v>440</v>
+      </c>
+      <c r="E66" s="16">
         <v>6700</v>
       </c>
-      <c r="G66" s="17">
-        <f t="shared" si="0"/>
+      <c r="F66" s="17">
+        <f>E66*32</f>
         <v>214400</v>
+      </c>
+      <c r="G66" s="14">
+        <v>14</v>
       </c>
       <c r="H66" s="15">
         <v>15</v>
@@ -5777,23 +5776,23 @@
         <v>66</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>89</v>
+        <v>346</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F67" s="16">
+        <v>440</v>
+      </c>
+      <c r="E67" s="16">
         <v>9500</v>
       </c>
-      <c r="G67" s="17">
-        <f t="shared" si="0"/>
+      <c r="F67" s="17">
+        <f>E67*32</f>
         <v>304000</v>
+      </c>
+      <c r="G67" s="14">
+        <v>15</v>
       </c>
       <c r="H67" s="15">
         <v>13</v>
@@ -5804,23 +5803,23 @@
         <v>67</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F68" s="16">
+        <v>505</v>
+      </c>
+      <c r="E68" s="16">
         <v>11050</v>
       </c>
-      <c r="G68" s="17">
-        <f t="shared" ref="G68:G131" si="1">F68*32</f>
+      <c r="F68" s="17">
+        <f>E68*32</f>
         <v>353600</v>
+      </c>
+      <c r="G68" s="14">
+        <v>16</v>
       </c>
       <c r="H68" s="15">
         <v>12</v>
@@ -5831,23 +5830,23 @@
         <v>68</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>9</v>
+        <v>349</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F69" s="16">
+        <v>440</v>
+      </c>
+      <c r="E69" s="16">
         <v>3000</v>
       </c>
-      <c r="G69" s="17">
-        <f t="shared" si="1"/>
+      <c r="F69" s="17">
+        <f>E69*32</f>
         <v>96000</v>
+      </c>
+      <c r="G69" s="14">
+        <v>17</v>
       </c>
       <c r="H69" s="15">
         <v>13</v>
@@ -5858,23 +5857,23 @@
         <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>9</v>
+        <v>350</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F70" s="16">
+        <v>440</v>
+      </c>
+      <c r="E70" s="16">
         <v>3500</v>
       </c>
-      <c r="G70" s="17">
-        <f t="shared" si="1"/>
+      <c r="F70" s="17">
+        <f>E70*32</f>
         <v>112000</v>
+      </c>
+      <c r="G70" s="14">
+        <v>17</v>
       </c>
       <c r="H70" s="15">
         <v>13</v>
@@ -5885,23 +5884,23 @@
         <v>70</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>9</v>
+        <v>351</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E71" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F71" s="16">
+        <v>440</v>
+      </c>
+      <c r="E71" s="16">
         <v>3000</v>
       </c>
-      <c r="G71" s="17">
-        <f t="shared" si="1"/>
+      <c r="F71" s="17">
+        <f>E71*32</f>
         <v>96000</v>
+      </c>
+      <c r="G71" s="14">
+        <v>17</v>
       </c>
       <c r="H71" s="15">
         <v>13</v>
@@ -5912,23 +5911,23 @@
         <v>71</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>9</v>
+        <v>352</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E72" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F72" s="16">
+        <v>440</v>
+      </c>
+      <c r="E72" s="16">
         <v>2500</v>
       </c>
-      <c r="G72" s="17">
-        <f t="shared" si="1"/>
+      <c r="F72" s="17">
+        <f>E72*32</f>
         <v>80000</v>
+      </c>
+      <c r="G72" s="14">
+        <v>17</v>
       </c>
       <c r="H72" s="15">
         <v>13</v>
@@ -5939,23 +5938,23 @@
         <v>72</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>9</v>
+        <v>353</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F73" s="16">
+        <v>440</v>
+      </c>
+      <c r="E73" s="16">
         <v>2800</v>
       </c>
-      <c r="G73" s="17">
-        <f t="shared" si="1"/>
+      <c r="F73" s="17">
+        <f>E73*32</f>
         <v>89600</v>
+      </c>
+      <c r="G73" s="14">
+        <v>17</v>
       </c>
       <c r="H73" s="15">
         <v>13</v>
@@ -5966,23 +5965,23 @@
         <v>73</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>9</v>
+        <v>354</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F74" s="16">
+        <v>440</v>
+      </c>
+      <c r="E74" s="16">
         <v>2900</v>
       </c>
-      <c r="G74" s="17">
-        <f t="shared" si="1"/>
+      <c r="F74" s="17">
+        <f>E74*32</f>
         <v>92800</v>
+      </c>
+      <c r="G74" s="14">
+        <v>17</v>
       </c>
       <c r="H74" s="15">
         <v>13</v>
@@ -5993,23 +5992,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>9</v>
+        <v>355</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F75" s="16">
+        <v>440</v>
+      </c>
+      <c r="E75" s="16">
         <v>3000</v>
       </c>
-      <c r="G75" s="17">
-        <f t="shared" si="1"/>
+      <c r="F75" s="17">
+        <f>E75*32</f>
         <v>96000</v>
+      </c>
+      <c r="G75" s="14">
+        <v>17</v>
       </c>
       <c r="H75" s="15">
         <v>13</v>
@@ -6020,23 +6019,23 @@
         <v>75</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>9</v>
+        <v>356</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F76" s="16">
+        <v>440</v>
+      </c>
+      <c r="E76" s="16">
         <v>3000</v>
       </c>
-      <c r="G76" s="17">
-        <f t="shared" si="1"/>
+      <c r="F76" s="17">
+        <f>E76*32</f>
         <v>96000</v>
+      </c>
+      <c r="G76" s="14">
+        <v>17</v>
       </c>
       <c r="H76" s="15">
         <v>13</v>
@@ -6047,23 +6046,23 @@
         <v>76</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>9</v>
+        <v>357</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F77" s="16">
+        <v>440</v>
+      </c>
+      <c r="E77" s="16">
         <v>3000</v>
       </c>
-      <c r="G77" s="17">
-        <f t="shared" si="1"/>
+      <c r="F77" s="17">
+        <f>E77*32</f>
         <v>96000</v>
+      </c>
+      <c r="G77" s="14">
+        <v>17</v>
       </c>
       <c r="H77" s="15">
         <v>13</v>
@@ -6074,23 +6073,23 @@
         <v>77</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>9</v>
+        <v>358</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F78" s="16">
+        <v>440</v>
+      </c>
+      <c r="E78" s="16">
         <v>3000</v>
       </c>
-      <c r="G78" s="17">
-        <f t="shared" si="1"/>
+      <c r="F78" s="17">
+        <f>E78*32</f>
         <v>96000</v>
+      </c>
+      <c r="G78" s="14">
+        <v>17</v>
       </c>
       <c r="H78" s="15">
         <v>13</v>
@@ -6101,23 +6100,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>9</v>
+        <v>359</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F79" s="16">
+        <v>440</v>
+      </c>
+      <c r="E79" s="16">
         <v>3000</v>
       </c>
-      <c r="G79" s="17">
-        <f t="shared" si="1"/>
+      <c r="F79" s="17">
+        <f>E79*32</f>
         <v>96000</v>
+      </c>
+      <c r="G79" s="14">
+        <v>17</v>
       </c>
       <c r="H79" s="15">
         <v>13</v>
@@ -6128,23 +6127,23 @@
         <v>79</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>9</v>
+        <v>360</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F80" s="16">
+        <v>440</v>
+      </c>
+      <c r="E80" s="16">
         <v>3000</v>
       </c>
-      <c r="G80" s="17">
-        <f t="shared" si="1"/>
+      <c r="F80" s="17">
+        <f>E80*32</f>
         <v>96000</v>
+      </c>
+      <c r="G80" s="14">
+        <v>17</v>
       </c>
       <c r="H80" s="15">
         <v>13</v>
@@ -6155,23 +6154,23 @@
         <v>80</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>9</v>
+        <v>361</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F81" s="16">
+        <v>440</v>
+      </c>
+      <c r="E81" s="16">
         <v>3500</v>
       </c>
-      <c r="G81" s="17">
-        <f t="shared" si="1"/>
+      <c r="F81" s="17">
+        <f>E81*32</f>
         <v>112000</v>
+      </c>
+      <c r="G81" s="14">
+        <v>17</v>
       </c>
       <c r="H81" s="15">
         <v>13</v>
@@ -6182,23 +6181,23 @@
         <v>81</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>9</v>
+        <v>361</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F82" s="16">
+        <v>440</v>
+      </c>
+      <c r="E82" s="16">
         <v>3200</v>
       </c>
-      <c r="G82" s="17">
-        <f t="shared" si="1"/>
+      <c r="F82" s="17">
+        <f>E82*32</f>
         <v>102400</v>
+      </c>
+      <c r="G82" s="14">
+        <v>17</v>
       </c>
       <c r="H82" s="15">
         <v>13</v>
@@ -6209,23 +6208,23 @@
         <v>82</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>9</v>
+        <v>362</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F83" s="16">
+        <v>440</v>
+      </c>
+      <c r="E83" s="16">
         <v>6000</v>
       </c>
-      <c r="G83" s="17">
-        <f t="shared" si="1"/>
+      <c r="F83" s="17">
+        <f>E83*32</f>
         <v>192000</v>
+      </c>
+      <c r="G83" s="14">
+        <v>17</v>
       </c>
       <c r="H83" s="15">
         <v>13</v>
@@ -6236,23 +6235,23 @@
         <v>83</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>9</v>
+        <v>363</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F84" s="16">
+        <v>440</v>
+      </c>
+      <c r="E84" s="16">
         <v>5100</v>
       </c>
-      <c r="G84" s="17">
-        <f t="shared" si="1"/>
+      <c r="F84" s="17">
+        <f>E84*32</f>
         <v>163200</v>
+      </c>
+      <c r="G84" s="14">
+        <v>17</v>
       </c>
       <c r="H84" s="15">
         <v>13</v>
@@ -6263,23 +6262,23 @@
         <v>84</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>9</v>
+        <v>368</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F85" s="16">
+        <v>440</v>
+      </c>
+      <c r="E85" s="16">
         <v>5200</v>
       </c>
-      <c r="G85" s="17">
-        <f t="shared" si="1"/>
+      <c r="F85" s="17">
+        <f>E85*32</f>
         <v>166400</v>
+      </c>
+      <c r="G85" s="14">
+        <v>17</v>
       </c>
       <c r="H85" s="15">
         <v>13</v>
@@ -6290,23 +6289,23 @@
         <v>85</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>9</v>
+        <v>369</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F86" s="16">
+        <v>440</v>
+      </c>
+      <c r="E86" s="16">
         <v>3000</v>
       </c>
-      <c r="G86" s="17">
-        <f t="shared" si="1"/>
+      <c r="F86" s="17">
+        <f>E86*32</f>
         <v>96000</v>
+      </c>
+      <c r="G86" s="14">
+        <v>17</v>
       </c>
       <c r="H86" s="15">
         <v>13</v>
@@ -6317,23 +6316,23 @@
         <v>86</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>9</v>
+        <v>364</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F87" s="16">
+        <v>440</v>
+      </c>
+      <c r="E87" s="16">
         <v>6500</v>
       </c>
-      <c r="G87" s="17">
-        <f t="shared" si="1"/>
+      <c r="F87" s="17">
+        <f>E87*32</f>
         <v>208000</v>
+      </c>
+      <c r="G87" s="14">
+        <v>17</v>
       </c>
       <c r="H87" s="15">
         <v>13</v>
@@ -6344,23 +6343,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>9</v>
+        <v>365</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E88" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F88" s="16">
+        <v>440</v>
+      </c>
+      <c r="E88" s="16">
         <v>6100</v>
       </c>
-      <c r="G88" s="17">
-        <f t="shared" si="1"/>
+      <c r="F88" s="17">
+        <f>E88*32</f>
         <v>195200</v>
+      </c>
+      <c r="G88" s="14">
+        <v>17</v>
       </c>
       <c r="H88" s="15">
         <v>13</v>
@@ -6371,23 +6370,23 @@
         <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>9</v>
+        <v>366</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F89" s="16">
+        <v>440</v>
+      </c>
+      <c r="E89" s="16">
         <v>3000</v>
       </c>
-      <c r="G89" s="17">
-        <f t="shared" si="1"/>
+      <c r="F89" s="17">
+        <f>E89*32</f>
         <v>96000</v>
+      </c>
+      <c r="G89" s="14">
+        <v>17</v>
       </c>
       <c r="H89" s="15">
         <v>13</v>
@@ -6398,23 +6397,23 @@
         <v>89</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>9</v>
+        <v>367</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E90" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F90" s="16">
+        <v>440</v>
+      </c>
+      <c r="E90" s="16">
         <v>2000</v>
       </c>
-      <c r="G90" s="17">
-        <f t="shared" si="1"/>
+      <c r="F90" s="17">
+        <f>E90*32</f>
         <v>64000</v>
+      </c>
+      <c r="G90" s="14">
+        <v>17</v>
       </c>
       <c r="H90" s="15">
         <v>13</v>
@@ -6425,23 +6424,23 @@
         <v>90</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E91" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F91" s="16">
+        <v>440</v>
+      </c>
+      <c r="E91" s="16">
         <v>5000</v>
       </c>
-      <c r="G91" s="17">
-        <f t="shared" si="1"/>
+      <c r="F91" s="17">
+        <f>E91*32</f>
         <v>160000</v>
+      </c>
+      <c r="G91" s="14">
+        <v>18</v>
       </c>
       <c r="H91" s="15">
         <v>14</v>
@@ -6454,21 +6453,21 @@
       <c r="B92" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="14" t="s">
-        <v>4</v>
+      <c r="C92" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F92" s="16">
+        <v>440</v>
+      </c>
+      <c r="E92" s="16">
         <v>4000</v>
       </c>
-      <c r="G92" s="17">
-        <f t="shared" si="1"/>
+      <c r="F92" s="17">
+        <f>E92*32</f>
         <v>128000</v>
+      </c>
+      <c r="G92" s="14">
+        <v>19</v>
       </c>
       <c r="H92" s="15">
         <v>15</v>
@@ -6481,21 +6480,21 @@
       <c r="B93" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="14" t="s">
-        <v>4</v>
+      <c r="C93" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E93" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F93" s="16">
+        <v>440</v>
+      </c>
+      <c r="E93" s="16">
         <v>2000</v>
       </c>
-      <c r="G93" s="17">
-        <f t="shared" si="1"/>
+      <c r="F93" s="17">
+        <f>E93*32</f>
         <v>64000</v>
+      </c>
+      <c r="G93" s="14">
+        <v>19</v>
       </c>
       <c r="H93" s="15">
         <v>15</v>
@@ -6508,21 +6507,21 @@
       <c r="B94" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C94" s="14" t="s">
-        <v>376</v>
+      <c r="C94" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E94" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F94" s="16">
+        <v>440</v>
+      </c>
+      <c r="E94" s="16">
         <v>2000</v>
       </c>
-      <c r="G94" s="17">
-        <f t="shared" si="1"/>
+      <c r="F94" s="17">
+        <f>E94*32</f>
         <v>64000</v>
+      </c>
+      <c r="G94" s="14">
+        <v>20</v>
       </c>
       <c r="H94" s="15">
         <v>2</v>
@@ -6533,23 +6532,23 @@
         <v>94</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>376</v>
+        <v>372</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F95" s="16">
+        <v>440</v>
+      </c>
+      <c r="E95" s="16">
         <v>3000</v>
       </c>
-      <c r="G95" s="17">
-        <f t="shared" si="1"/>
+      <c r="F95" s="17">
+        <f>E95*32</f>
         <v>96000</v>
+      </c>
+      <c r="G95" s="14">
+        <v>20</v>
       </c>
       <c r="H95" s="15">
         <v>2</v>
@@ -6560,23 +6559,23 @@
         <v>95</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F96" s="16">
+        <v>440</v>
+      </c>
+      <c r="E96" s="16">
         <v>4500</v>
       </c>
-      <c r="G96" s="17">
-        <f t="shared" si="1"/>
+      <c r="F96" s="17">
+        <f>E96*32</f>
         <v>144000</v>
+      </c>
+      <c r="G96" s="14">
+        <v>20</v>
       </c>
       <c r="H96" s="15">
         <v>2</v>
@@ -6587,23 +6586,23 @@
         <v>96</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E97" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F97" s="16">
+        <v>440</v>
+      </c>
+      <c r="E97" s="16">
         <v>1000</v>
       </c>
-      <c r="G97" s="17">
-        <f t="shared" si="1"/>
+      <c r="F97" s="17">
+        <f>E97*32</f>
         <v>32000</v>
+      </c>
+      <c r="G97" s="14">
+        <v>20</v>
       </c>
       <c r="H97" s="15">
         <v>2</v>
@@ -6616,21 +6615,21 @@
       <c r="B98" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="14" t="s">
-        <v>376</v>
+      <c r="C98" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E98" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F98" s="16">
+        <v>440</v>
+      </c>
+      <c r="E98" s="16">
         <v>3000</v>
       </c>
-      <c r="G98" s="17">
-        <f t="shared" si="1"/>
+      <c r="F98" s="17">
+        <f>E98*32</f>
         <v>96000</v>
+      </c>
+      <c r="G98" s="14">
+        <v>20</v>
       </c>
       <c r="H98" s="15">
         <v>2</v>
@@ -6643,21 +6642,21 @@
       <c r="B99" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E99" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F99" s="17">
+        <f>E99*32</f>
+        <v>64000</v>
+      </c>
+      <c r="G99" s="14">
         <v>21</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E99" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F99" s="16">
-        <v>2000</v>
-      </c>
-      <c r="G99" s="17">
-        <f t="shared" si="1"/>
-        <v>64000</v>
       </c>
       <c r="H99" s="15">
         <v>5</v>
@@ -6668,23 +6667,23 @@
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="C100" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E100" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F100" s="17">
+        <f>E100*32</f>
+        <v>64000</v>
+      </c>
+      <c r="G100" s="14">
         <v>21</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F100" s="16">
-        <v>2000</v>
-      </c>
-      <c r="G100" s="17">
-        <f t="shared" si="1"/>
-        <v>64000</v>
       </c>
       <c r="H100" s="15">
         <v>5</v>
@@ -6695,23 +6694,23 @@
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="C101" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E101" s="16">
+        <v>4000</v>
+      </c>
+      <c r="F101" s="17">
+        <f>E101*32</f>
+        <v>128000</v>
+      </c>
+      <c r="G101" s="14">
         <v>21</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E101" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F101" s="16">
-        <v>4000</v>
-      </c>
-      <c r="G101" s="17">
-        <f t="shared" si="1"/>
-        <v>128000</v>
       </c>
       <c r="H101" s="15">
         <v>5</v>
@@ -6722,23 +6721,23 @@
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="C102" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="E102" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="17">
+        <f>E102*32</f>
+        <v>32000</v>
+      </c>
+      <c r="G102" s="14">
         <v>21</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E102" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F102" s="16">
-        <v>1000</v>
-      </c>
-      <c r="G102" s="17">
-        <f t="shared" si="1"/>
-        <v>32000</v>
       </c>
       <c r="H102" s="15">
         <v>5</v>
@@ -6749,23 +6748,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="C103" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E103" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F103" s="17">
+        <f>E103*32</f>
+        <v>64000</v>
+      </c>
+      <c r="G103" s="14">
         <v>21</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E103" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F103" s="16">
-        <v>2000</v>
-      </c>
-      <c r="G103" s="17">
-        <f t="shared" si="1"/>
-        <v>64000</v>
       </c>
       <c r="H103" s="15">
         <v>5</v>
@@ -6778,21 +6777,21 @@
       <c r="B104" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E104" s="16">
+        <v>3500</v>
+      </c>
+      <c r="F104" s="17">
+        <f>E104*32</f>
+        <v>112000</v>
+      </c>
+      <c r="G104" s="14">
         <v>21</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E104" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F104" s="16">
-        <v>3500</v>
-      </c>
-      <c r="G104" s="17">
-        <f t="shared" si="1"/>
-        <v>112000</v>
       </c>
       <c r="H104" s="15">
         <v>5</v>
@@ -6803,23 +6802,23 @@
         <v>104</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="C105" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E105" s="16">
+        <v>3500</v>
+      </c>
+      <c r="F105" s="17">
+        <f>E105*32</f>
+        <v>112000</v>
+      </c>
+      <c r="G105" s="14">
         <v>21</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E105" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F105" s="16">
-        <v>3500</v>
-      </c>
-      <c r="G105" s="17">
-        <f t="shared" si="1"/>
-        <v>112000</v>
       </c>
       <c r="H105" s="15">
         <v>5</v>
@@ -6832,21 +6831,21 @@
       <c r="B106" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E106" s="16">
+        <v>3500</v>
+      </c>
+      <c r="F106" s="17">
+        <f>E106*32</f>
+        <v>112000</v>
+      </c>
+      <c r="G106" s="14">
         <v>21</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E106" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F106" s="16">
-        <v>3500</v>
-      </c>
-      <c r="G106" s="17">
-        <f t="shared" si="1"/>
-        <v>112000</v>
       </c>
       <c r="H106" s="15">
         <v>5</v>
@@ -6857,23 +6856,23 @@
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="C107" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E107" s="16">
+        <v>6000</v>
+      </c>
+      <c r="F107" s="17">
+        <f>E107*32</f>
+        <v>192000</v>
+      </c>
+      <c r="G107" s="14">
         <v>21</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F107" s="16">
-        <v>6000</v>
-      </c>
-      <c r="G107" s="17">
-        <f t="shared" si="1"/>
-        <v>192000</v>
       </c>
       <c r="H107" s="15">
         <v>5</v>
@@ -6884,23 +6883,23 @@
         <v>107</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="C108" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="E108" s="16">
+        <v>6000</v>
+      </c>
+      <c r="F108" s="17">
+        <f>E108*32</f>
+        <v>192000</v>
+      </c>
+      <c r="G108" s="14">
         <v>21</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F108" s="16">
-        <v>6000</v>
-      </c>
-      <c r="G108" s="17">
-        <f t="shared" si="1"/>
-        <v>192000</v>
       </c>
       <c r="H108" s="15">
         <v>5</v>
@@ -6911,23 +6910,23 @@
         <v>108</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>182</v>
+        <v>383</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F109" s="16">
+        <v>440</v>
+      </c>
+      <c r="E109" s="16">
         <v>3800</v>
       </c>
-      <c r="G109" s="17">
-        <f t="shared" si="1"/>
+      <c r="F109" s="17">
+        <f>E109*32</f>
         <v>121600</v>
+      </c>
+      <c r="G109" s="14">
+        <v>22</v>
       </c>
       <c r="H109" s="15">
         <v>2</v>
@@ -6938,23 +6937,23 @@
         <v>109</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>11</v>
+        <v>384</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="F110" s="16">
+        <v>504</v>
+      </c>
+      <c r="E110" s="16">
         <v>13000</v>
       </c>
-      <c r="G110" s="17">
-        <f t="shared" si="1"/>
+      <c r="F110" s="17">
+        <f>E110*32</f>
         <v>416000</v>
+      </c>
+      <c r="G110" s="14">
+        <v>23</v>
       </c>
       <c r="H110" s="15">
         <v>12</v>
@@ -6965,23 +6964,23 @@
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>11</v>
+        <v>385</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F111" s="16">
+        <v>440</v>
+      </c>
+      <c r="E111" s="16">
         <v>15000</v>
       </c>
-      <c r="G111" s="17">
-        <f t="shared" si="1"/>
+      <c r="F111" s="17">
+        <f>E111*32</f>
         <v>480000</v>
+      </c>
+      <c r="G111" s="14">
+        <v>23</v>
       </c>
       <c r="H111" s="15">
         <v>12</v>
@@ -6994,21 +6993,21 @@
       <c r="B112" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C112" s="14" t="s">
-        <v>11</v>
+      <c r="C112" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F112" s="16">
+        <v>505</v>
+      </c>
+      <c r="E112" s="16">
         <v>20000</v>
       </c>
-      <c r="G112" s="17">
-        <f t="shared" si="1"/>
+      <c r="F112" s="17">
+        <f>E112*32</f>
         <v>640000</v>
+      </c>
+      <c r="G112" s="14">
+        <v>23</v>
       </c>
       <c r="H112" s="15">
         <v>12</v>
@@ -7019,23 +7018,23 @@
         <v>112</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>11</v>
+        <v>386</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F113" s="16">
+        <v>505</v>
+      </c>
+      <c r="E113" s="16">
         <v>20000</v>
       </c>
-      <c r="G113" s="17">
-        <f t="shared" si="1"/>
+      <c r="F113" s="17">
+        <f>E113*32</f>
         <v>640000</v>
+      </c>
+      <c r="G113" s="14">
+        <v>23</v>
       </c>
       <c r="H113" s="15">
         <v>12</v>
@@ -7048,21 +7047,21 @@
       <c r="B114" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C114" s="14" t="s">
-        <v>394</v>
+      <c r="C114" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F114" s="16">
+        <v>440</v>
+      </c>
+      <c r="E114" s="16">
         <v>16000</v>
       </c>
-      <c r="G114" s="17">
-        <f t="shared" si="1"/>
+      <c r="F114" s="17">
+        <f>E114*32</f>
         <v>512000</v>
+      </c>
+      <c r="G114" s="14">
+        <v>24</v>
       </c>
       <c r="H114" s="15">
         <v>14</v>
@@ -7073,23 +7072,23 @@
         <v>114</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>394</v>
+        <v>387</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F115" s="16">
+        <v>440</v>
+      </c>
+      <c r="E115" s="16">
         <v>3500</v>
       </c>
-      <c r="G115" s="17">
-        <f t="shared" si="1"/>
+      <c r="F115" s="17">
+        <f>E115*32</f>
         <v>112000</v>
+      </c>
+      <c r="G115" s="14">
+        <v>24</v>
       </c>
       <c r="H115" s="15">
         <v>14</v>
@@ -7102,21 +7101,21 @@
       <c r="B116" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>394</v>
+      <c r="C116" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F116" s="16">
+        <v>505</v>
+      </c>
+      <c r="E116" s="16">
         <v>30000</v>
       </c>
-      <c r="G116" s="17">
-        <f t="shared" si="1"/>
+      <c r="F116" s="17">
+        <f>E116*32</f>
         <v>960000</v>
+      </c>
+      <c r="G116" s="14">
+        <v>24</v>
       </c>
       <c r="H116" s="15">
         <v>14</v>
@@ -7127,23 +7126,23 @@
         <v>116</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>394</v>
+        <v>388</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F117" s="16">
+        <v>505</v>
+      </c>
+      <c r="E117" s="16">
         <v>15000</v>
       </c>
-      <c r="G117" s="17">
-        <f t="shared" si="1"/>
+      <c r="F117" s="17">
+        <f>E117*32</f>
         <v>480000</v>
+      </c>
+      <c r="G117" s="14">
+        <v>24</v>
       </c>
       <c r="H117" s="15">
         <v>14</v>
@@ -7154,23 +7153,23 @@
         <v>117</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F118" s="16">
+        <v>505</v>
+      </c>
+      <c r="E118" s="16">
         <v>16000</v>
       </c>
-      <c r="G118" s="17">
-        <f t="shared" si="1"/>
+      <c r="F118" s="17">
+        <f>E118*32</f>
         <v>512000</v>
+      </c>
+      <c r="G118" s="14">
+        <v>24</v>
       </c>
       <c r="H118" s="15">
         <v>14</v>
@@ -7183,21 +7182,21 @@
       <c r="B119" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="14" t="s">
-        <v>394</v>
+      <c r="C119" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F119" s="16">
+        <v>440</v>
+      </c>
+      <c r="E119" s="16">
         <v>6000</v>
       </c>
-      <c r="G119" s="17">
-        <f t="shared" si="1"/>
+      <c r="F119" s="17">
+        <f>E119*32</f>
         <v>192000</v>
+      </c>
+      <c r="G119" s="14">
+        <v>24</v>
       </c>
       <c r="H119" s="15">
         <v>14</v>
@@ -7208,23 +7207,23 @@
         <v>119</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>394</v>
+        <v>389</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E120" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F120" s="16">
+        <v>440</v>
+      </c>
+      <c r="E120" s="16">
         <v>4700</v>
       </c>
-      <c r="G120" s="17">
-        <f t="shared" si="1"/>
+      <c r="F120" s="17">
+        <f>E120*32</f>
         <v>150400</v>
+      </c>
+      <c r="G120" s="14">
+        <v>24</v>
       </c>
       <c r="H120" s="15">
         <v>14</v>
@@ -7235,23 +7234,23 @@
         <v>120</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E121" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F121" s="16">
+        <v>440</v>
+      </c>
+      <c r="E121" s="16">
         <v>3000</v>
       </c>
-      <c r="G121" s="17">
-        <f t="shared" si="1"/>
+      <c r="F121" s="17">
+        <f>E121*32</f>
         <v>96000</v>
+      </c>
+      <c r="G121" s="14">
+        <v>24</v>
       </c>
       <c r="H121" s="15">
         <v>14</v>
@@ -7262,23 +7261,23 @@
         <v>121</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>394</v>
+        <v>338</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E122" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F122" s="16">
+        <v>440</v>
+      </c>
+      <c r="E122" s="16">
         <v>3500</v>
       </c>
-      <c r="G122" s="17">
-        <f t="shared" si="1"/>
+      <c r="F122" s="17">
+        <f>E122*32</f>
         <v>112000</v>
+      </c>
+      <c r="G122" s="14">
+        <v>24</v>
       </c>
       <c r="H122" s="15">
         <v>14</v>
@@ -7289,23 +7288,23 @@
         <v>122</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F123" s="16">
+        <v>440</v>
+      </c>
+      <c r="E123" s="16">
         <v>1500</v>
       </c>
-      <c r="G123" s="17">
-        <f t="shared" si="1"/>
+      <c r="F123" s="17">
+        <f>E123*32</f>
         <v>48000</v>
+      </c>
+      <c r="G123" s="14">
+        <v>24</v>
       </c>
       <c r="H123" s="15">
         <v>14</v>
@@ -7316,23 +7315,23 @@
         <v>123</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>394</v>
+        <v>506</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F124" s="16">
+        <v>505</v>
+      </c>
+      <c r="E124" s="16">
         <v>20000</v>
       </c>
-      <c r="G124" s="17">
-        <f t="shared" si="1"/>
+      <c r="F124" s="17">
+        <f>E124*32</f>
         <v>640000</v>
+      </c>
+      <c r="G124" s="14">
+        <v>24</v>
       </c>
       <c r="H124" s="15">
         <v>14</v>
@@ -7345,21 +7344,21 @@
       <c r="B125" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C125" s="14" t="s">
-        <v>394</v>
+      <c r="C125" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E125" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F125" s="16">
+        <v>440</v>
+      </c>
+      <c r="E125" s="16">
         <v>21000</v>
       </c>
-      <c r="G125" s="17">
-        <f t="shared" si="1"/>
+      <c r="F125" s="17">
+        <f>E125*32</f>
         <v>672000</v>
+      </c>
+      <c r="G125" s="14">
+        <v>24</v>
       </c>
       <c r="H125" s="15">
         <v>14</v>
@@ -7370,23 +7369,23 @@
         <v>125</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="C126" s="14" t="s">
         <v>394</v>
       </c>
+      <c r="C126" s="15" t="s">
+        <v>441</v>
+      </c>
       <c r="D126" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E126" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F126" s="16">
+        <v>440</v>
+      </c>
+      <c r="E126" s="16">
         <v>3700</v>
       </c>
-      <c r="G126" s="17">
-        <f t="shared" si="1"/>
+      <c r="F126" s="17">
+        <f>E126*32</f>
         <v>118400</v>
+      </c>
+      <c r="G126" s="14">
+        <v>24</v>
       </c>
       <c r="H126" s="15">
         <v>14</v>
@@ -7397,23 +7396,23 @@
         <v>126</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>8</v>
+        <v>395</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F127" s="16">
+        <v>440</v>
+      </c>
+      <c r="E127" s="16">
         <v>12500</v>
       </c>
-      <c r="G127" s="17">
-        <f t="shared" si="1"/>
+      <c r="F127" s="17">
+        <f>E127*32</f>
         <v>400000</v>
+      </c>
+      <c r="G127" s="14">
+        <v>25</v>
       </c>
       <c r="H127" s="15">
         <v>12</v>
@@ -7424,23 +7423,23 @@
         <v>127</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>8</v>
+        <v>396</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F128" s="16">
+        <v>440</v>
+      </c>
+      <c r="E128" s="16">
         <v>13700</v>
       </c>
-      <c r="G128" s="17">
-        <f t="shared" si="1"/>
+      <c r="F128" s="17">
+        <f>E128*32</f>
         <v>438400</v>
+      </c>
+      <c r="G128" s="14">
+        <v>25</v>
       </c>
       <c r="H128" s="15">
         <v>12</v>
@@ -7451,23 +7450,23 @@
         <v>128</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>8</v>
+        <v>397</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F129" s="16">
+        <v>440</v>
+      </c>
+      <c r="E129" s="16">
         <v>15000</v>
       </c>
-      <c r="G129" s="17">
-        <f t="shared" si="1"/>
+      <c r="F129" s="17">
+        <f>E129*32</f>
         <v>480000</v>
+      </c>
+      <c r="G129" s="14">
+        <v>25</v>
       </c>
       <c r="H129" s="15">
         <v>12</v>
@@ -7478,23 +7477,23 @@
         <v>129</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>8</v>
+        <v>398</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F130" s="16">
+        <v>440</v>
+      </c>
+      <c r="E130" s="16">
         <v>8000</v>
       </c>
-      <c r="G130" s="17">
-        <f t="shared" si="1"/>
+      <c r="F130" s="17">
+        <f>E130*32</f>
         <v>256000</v>
+      </c>
+      <c r="G130" s="14">
+        <v>25</v>
       </c>
       <c r="H130" s="15">
         <v>12</v>
@@ -7507,21 +7506,21 @@
       <c r="B131" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C131" s="14" t="s">
-        <v>8</v>
+      <c r="C131" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E131" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="F131" s="16">
+        <v>504</v>
+      </c>
+      <c r="E131" s="16">
         <v>24000</v>
       </c>
-      <c r="G131" s="17">
-        <f t="shared" si="1"/>
+      <c r="F131" s="17">
+        <f>E131*32</f>
         <v>768000</v>
+      </c>
+      <c r="G131" s="14">
+        <v>25</v>
       </c>
       <c r="H131" s="15">
         <v>12</v>
@@ -7532,23 +7531,23 @@
         <v>131</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="C132" s="14" t="s">
-        <v>8</v>
+        <v>399</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E132" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F132" s="16">
+        <v>505</v>
+      </c>
+      <c r="E132" s="16">
         <v>26000</v>
       </c>
-      <c r="G132" s="17">
-        <f t="shared" ref="G132:G139" si="2">F132*32</f>
+      <c r="F132" s="17">
+        <f>E132*32</f>
         <v>832000</v>
+      </c>
+      <c r="G132" s="14">
+        <v>25</v>
       </c>
       <c r="H132" s="15">
         <v>12</v>
@@ -7559,23 +7558,23 @@
         <v>132</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>8</v>
+        <v>400</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E133" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="F133" s="16">
+        <v>504</v>
+      </c>
+      <c r="E133" s="16">
         <v>18000</v>
       </c>
-      <c r="G133" s="17">
-        <f t="shared" si="2"/>
+      <c r="F133" s="17">
+        <f>E133*32</f>
         <v>576000</v>
+      </c>
+      <c r="G133" s="14">
+        <v>25</v>
       </c>
       <c r="H133" s="15">
         <v>12</v>
@@ -7586,23 +7585,23 @@
         <v>133</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E134" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="F134" s="16">
+        <v>505</v>
+      </c>
+      <c r="E134" s="16">
         <v>3800</v>
       </c>
-      <c r="G134" s="17">
-        <f t="shared" si="2"/>
+      <c r="F134" s="17">
+        <f>E134*32</f>
         <v>121600</v>
+      </c>
+      <c r="G134" s="14">
+        <v>26</v>
       </c>
       <c r="H134" s="15">
         <v>13</v>
@@ -7615,21 +7614,21 @@
       <c r="B135" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C135" s="14" t="s">
-        <v>1</v>
+      <c r="C135" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="F135" s="16">
+        <v>504</v>
+      </c>
+      <c r="E135" s="16">
         <v>6500</v>
       </c>
-      <c r="G135" s="17">
-        <f t="shared" si="2"/>
+      <c r="F135" s="17">
+        <f>E135*32</f>
         <v>208000</v>
+      </c>
+      <c r="G135" s="14">
+        <v>27</v>
       </c>
       <c r="H135" s="15">
         <v>14</v>
@@ -7642,21 +7641,21 @@
       <c r="B136" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C136" s="14" t="s">
-        <v>32</v>
+      <c r="C136" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="E136" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F136" s="16">
+        <v>440</v>
+      </c>
+      <c r="E136" s="16">
         <v>3500</v>
       </c>
-      <c r="G136" s="17">
-        <f t="shared" si="2"/>
+      <c r="F136" s="17">
+        <f>E136*32</f>
         <v>112000</v>
+      </c>
+      <c r="G136" s="14">
+        <v>28</v>
       </c>
       <c r="H136" s="15">
         <v>15</v>
@@ -7667,23 +7666,23 @@
         <v>136</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>404</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>501</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E137" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F137" s="16">
+        <v>440</v>
+      </c>
+      <c r="E137" s="16">
         <v>3800</v>
       </c>
-      <c r="G137" s="17">
-        <f t="shared" si="2"/>
+      <c r="F137" s="17">
+        <f>E137*32</f>
         <v>121600</v>
+      </c>
+      <c r="G137" s="14">
+        <v>29</v>
       </c>
       <c r="H137" s="15">
         <v>13</v>
@@ -7694,23 +7693,23 @@
         <v>137</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F138" s="16">
+        <v>440</v>
+      </c>
+      <c r="E138" s="16">
         <v>4500</v>
       </c>
-      <c r="G138" s="17">
-        <f t="shared" si="2"/>
+      <c r="F138" s="17">
+        <f>E138*32</f>
         <v>144000</v>
+      </c>
+      <c r="G138" s="15">
+        <v>29</v>
       </c>
       <c r="H138" s="15">
         <v>13</v>
@@ -7724,20 +7723,20 @@
         <v>76</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="E139" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="F139" s="16">
+        <v>440</v>
+      </c>
+      <c r="E139" s="16">
         <v>4900</v>
       </c>
-      <c r="G139" s="17">
-        <f t="shared" si="2"/>
+      <c r="F139" s="17">
+        <f>E139*32</f>
         <v>156800</v>
+      </c>
+      <c r="G139" s="15">
+        <v>30</v>
       </c>
       <c r="H139" s="15">
         <v>14</v>
@@ -7745,7 +7744,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72"/>
+  <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7753,7 +7752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -7773,31 +7772,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>248</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.5">
@@ -7805,19 +7804,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H2" s="2">
         <v>13</v>
@@ -7831,16 +7830,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H3" s="2">
         <v>12</v>
@@ -7851,19 +7850,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H4" s="2">
         <v>14</v>
@@ -7874,19 +7873,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H5" s="2">
         <v>14</v>
@@ -7897,19 +7896,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H6" s="2">
         <v>15</v>
@@ -7923,16 +7922,16 @@
         <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H7" s="2">
         <v>15</v>
@@ -7943,19 +7942,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H8" s="2">
         <v>15</v>
@@ -7969,16 +7968,16 @@
         <v>173</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H9" s="2">
         <v>15</v>
@@ -7989,19 +7988,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H10" s="2">
         <v>12</v>
@@ -8015,16 +8014,16 @@
         <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H11" s="2">
         <v>13</v>
@@ -8035,19 +8034,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H12" s="2">
         <v>14</v>
@@ -8058,19 +8057,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H13" s="2">
         <v>15</v>
@@ -8084,16 +8083,16 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H14" s="2">
         <v>15</v>
@@ -8107,16 +8106,16 @@
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H15" s="2">
         <v>15</v>
@@ -8130,16 +8129,16 @@
         <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H16" s="2">
         <v>13</v>
@@ -8150,19 +8149,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H17" s="2">
         <v>12</v>
@@ -8176,16 +8175,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H18" s="2">
         <v>13</v>
@@ -8196,19 +8195,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H19" s="2">
         <v>14</v>
@@ -8222,16 +8221,16 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H20" s="2">
         <v>15</v>
@@ -8242,19 +8241,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H21" s="2">
         <v>2</v>
@@ -8268,16 +8267,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="H22" s="2">
         <v>5</v>
@@ -8291,16 +8290,16 @@
         <v>182</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H23" s="2">
         <v>2</v>
@@ -8314,16 +8313,16 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H24" s="2">
         <v>12</v>
@@ -8334,19 +8333,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H25" s="2">
         <v>14</v>
@@ -8360,16 +8359,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H26" s="2">
         <v>12</v>
@@ -8380,19 +8379,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H27" s="2">
         <v>13</v>
@@ -8406,16 +8405,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H28" s="2">
         <v>14</v>
@@ -8429,16 +8428,16 @@
         <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H29" s="2">
         <v>15</v>
@@ -8449,19 +8448,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H30" s="2">
         <v>13</v>
@@ -8475,16 +8474,16 @@
         <v>77</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H31" s="2">
         <v>14</v>
@@ -8532,7 +8531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -8549,31 +8548,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8878,7 +8877,7 @@
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="2:2">
@@ -9013,7 +9012,7 @@
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="2:2">
@@ -9038,7 +9037,7 @@
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" spans="2:2">
@@ -9427,40 +9426,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -9492,37 +9491,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>439</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
